--- a/words/5.15-B.xlsx
+++ b/words/5.15-B.xlsx
@@ -16,6 +16,83 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>eyebrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v             n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pearl Harbor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shelter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>molecule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offspring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posterity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heir</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descendant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orbital</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -362,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -374,7 +451,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
@@ -384,22 +463,32 @@
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
@@ -409,32 +498,41 @@
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
@@ -444,12 +542,16 @@
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
@@ -459,22 +561,30 @@
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
@@ -484,7 +594,9 @@
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
